--- a/因子分析/excel/因子分析数据.xlsx
+++ b/因子分析/excel/因子分析数据.xlsx
@@ -1,157 +1,304 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tao xia\Desktop\work\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECDBC63-0659-4790-A4B3-B9C7B0112CE2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="7980" xr2:uid="{FC903364-CBFC-475C-9FA6-CC01E78263C1}"/>
+    <workbookView windowWidth="19200" windowHeight="11625"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>城市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人口总数（万人）</t>
+  </si>
+  <si>
+    <t>生产总值（亿元）</t>
+  </si>
+  <si>
+    <t>全社会固定资产投资总额（亿元）</t>
+  </si>
+  <si>
+    <t>一般预算收入(亿元)</t>
+  </si>
+  <si>
+    <t>财政支出（亿元）</t>
+  </si>
+  <si>
+    <t>城镇非私营单位就业人员工资总额（万元）</t>
+  </si>
+  <si>
+    <t>城镇居民人均可支配收入（元）</t>
+  </si>
+  <si>
+    <t>农村居民可支配收入（元）</t>
+  </si>
+  <si>
+    <t>农林牧副渔总产值（万元）</t>
+  </si>
+  <si>
+    <t>规模以上工业总产值（亿元）</t>
+  </si>
+  <si>
+    <t>社会消费品零售总额（万元）</t>
+  </si>
+  <si>
+    <t>进出口总额（千美元）</t>
   </si>
   <si>
     <t>石家庄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>承德市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>张家口市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>秦皇岛市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>唐山市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>廊坊市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>保定市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>沧州市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>衡水市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>邢台市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>邯郸市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财政支出（亿元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进出口总额（千美元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人口总数（万人）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产总值（亿元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全社会固定资产投资总额（亿元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般预算收入(亿元)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城镇非私营单位就业人员工资总额（万元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城镇居民人均可支配收入（元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农村居民可支配收入（元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农林牧副渔总产值（万元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规模以上工业总产值（亿元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社会消费品零售总额（万元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -159,131 +306,61 @@
       <sz val="18"/>
       <color indexed="56"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,91 +369,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,55 +547,124 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -449,9 +679,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,21 +719,6 @@
       </top>
       <bottom style="double">
         <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,21 +748,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="22"/>
       </left>
       <right style="thin">
@@ -545,209 +762,281 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="68">
+  <cellStyleXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -756,84 +1045,104 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="68">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" xr:uid="{0A81FCB6-99D0-44D9-BA90-0C56C2A68F55}"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="21" xr:uid="{238D4D9A-00F5-4EA6-94D1-6FAC2E48C0C9}"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="22" xr:uid="{0A9C57B8-4CA6-453E-B1C7-B747A2F1A8CC}"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="23" xr:uid="{611DDC72-0BA4-4FF9-A07B-47A3D0402EDE}"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="24" xr:uid="{220E1295-BCB0-4F19-B18C-646AD16A7A55}"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="25" xr:uid="{3AAFBFA8-E6DA-41B8-926E-93D3D2822EA9}"/>
-    <cellStyle name="20% - 着色 1 2" xfId="26" xr:uid="{DAC8D8B3-6244-4DBB-9A6D-AE52EED6CD21}"/>
-    <cellStyle name="20% - 着色 2 2" xfId="27" xr:uid="{D2001C96-F5A1-461C-BC59-F593E4C4234E}"/>
-    <cellStyle name="20% - 着色 3 2" xfId="28" xr:uid="{46B1B31C-FC74-44F2-836C-09A16572A2B4}"/>
-    <cellStyle name="20% - 着色 4 2" xfId="29" xr:uid="{8DF9C830-9A6F-4120-B8D9-4B8E8C416E87}"/>
-    <cellStyle name="20% - 着色 5 2" xfId="30" xr:uid="{8D6DBF87-D3F3-4DA8-A164-CF52348C76FD}"/>
-    <cellStyle name="20% - 着色 6 2" xfId="31" xr:uid="{28FFC2D8-9460-4E22-94E7-87621FD08CA5}"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="32" xr:uid="{085511F2-5282-413F-9A5A-223EDF9C1FB5}"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="33" xr:uid="{D4964C98-09B9-4C65-84F4-15E9BF0CCDB3}"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="34" xr:uid="{738911D4-8C7A-40D1-8BC5-AF9DFB9CA347}"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="35" xr:uid="{5C2B3AF2-0BC5-471F-9329-F47AE2C0EC39}"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="36" xr:uid="{1BFB2B7C-3525-4D11-AA0E-D7F6490C3AE8}"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="37" xr:uid="{11CC6B79-3705-4E8A-8183-56829A9F4BD2}"/>
-    <cellStyle name="40% - 着色 1 2" xfId="38" xr:uid="{920E8B48-3D0B-491A-8B20-41C748C52162}"/>
-    <cellStyle name="40% - 着色 2 2" xfId="39" xr:uid="{510B8679-A71E-4AF9-A77C-A2F8DE00E730}"/>
-    <cellStyle name="40% - 着色 3 2" xfId="40" xr:uid="{5382B79C-9775-4C0F-8149-DB9F0E7EA56F}"/>
-    <cellStyle name="40% - 着色 4 2" xfId="41" xr:uid="{780D4EE7-C53B-4C9B-B9A0-8FC302C5C397}"/>
-    <cellStyle name="40% - 着色 5 2" xfId="42" xr:uid="{E6A065B1-596F-41A0-982C-C75B6550B0E0}"/>
-    <cellStyle name="40% - 着色 6 2" xfId="43" xr:uid="{5E1D2678-EC95-4137-BD8A-A03DA1139DEF}"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="44" xr:uid="{9E86662C-6739-467A-B31D-A0B585298A37}"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="45" xr:uid="{98F86CE3-06E6-4E0E-9332-F57FB2915BAF}"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="46" xr:uid="{179CF167-6BCF-45E0-8107-0A7663655CF5}"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="47" xr:uid="{2C6ACDC3-3E3E-40A9-BB65-DC7C692FF591}"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="48" xr:uid="{30463C95-5DFA-4061-877C-A3538EA9262B}"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" xr:uid="{951F4978-D532-4216-BBAC-9C2207378748}"/>
-    <cellStyle name="60% - 着色 1 2" xfId="50" xr:uid="{9DE2A2DB-8142-426A-AA87-E08B7EFA3FB1}"/>
-    <cellStyle name="60% - 着色 2 2" xfId="51" xr:uid="{8B22CFAD-8E38-4C48-8211-655ACF1254C2}"/>
-    <cellStyle name="60% - 着色 3 2" xfId="52" xr:uid="{A7A750AF-53AA-4499-965C-D9A1D016C618}"/>
-    <cellStyle name="60% - 着色 4 2" xfId="53" xr:uid="{97B7F6BE-24B9-4DFA-872E-631896ACE424}"/>
-    <cellStyle name="60% - 着色 5 2" xfId="54" xr:uid="{CC06E639-D3A0-4E61-8F1C-A4CF329804F9}"/>
-    <cellStyle name="60% - 着色 6 2" xfId="55" xr:uid="{26A60498-4748-4043-A097-6A8858E8A448}"/>
-    <cellStyle name="百分比 2" xfId="2" xr:uid="{8DDBB15C-1AD6-4CD9-BF51-D0CF7421C4F1}"/>
-    <cellStyle name="标题 1 2" xfId="4" xr:uid="{6ED280C7-1088-42C0-B46F-38B350F01115}"/>
-    <cellStyle name="标题 2 2" xfId="5" xr:uid="{AAFB6B02-0799-41F0-A18D-76B1F047A2A4}"/>
-    <cellStyle name="标题 3 2" xfId="6" xr:uid="{A080B42A-23B4-4229-BF6D-0E281C10A862}"/>
-    <cellStyle name="标题 4 2" xfId="7" xr:uid="{85CB7593-2A27-4D28-9804-316DB7A187D7}"/>
-    <cellStyle name="标题 5" xfId="3" xr:uid="{AECEFCD3-E6D9-417F-AC94-BEA6EC7CEB7A}"/>
-    <cellStyle name="差 2" xfId="8" xr:uid="{28E4FF06-F26B-4C99-A72D-3A43BFBA0C1E}"/>
+  <cellStyles count="92">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{7DC714F8-3F8E-4818-868A-109E314BE598}"/>
-    <cellStyle name="好 2" xfId="9" xr:uid="{D56BAABC-5D61-416C-A197-090E3041CCA8}"/>
-    <cellStyle name="汇总 2" xfId="10" xr:uid="{7C2ACA7B-D6D4-4FE7-A7A9-546200C64764}"/>
-    <cellStyle name="计算 2" xfId="11" xr:uid="{538F5098-FD26-44AA-BCCD-CBE18E06537F}"/>
-    <cellStyle name="检查单元格 2" xfId="12" xr:uid="{41BC7479-5CFB-488B-85F9-E96368EC008E}"/>
-    <cellStyle name="解释性文本 2" xfId="13" xr:uid="{C48C34D9-2C20-4265-845F-070A46AFE607}"/>
-    <cellStyle name="警告文本 2" xfId="14" xr:uid="{74EA91FC-771E-4DE7-B5FD-659721014E49}"/>
-    <cellStyle name="链接单元格 2" xfId="15" xr:uid="{A10AA44E-3981-47E8-95AD-4EAA43790DF1}"/>
-    <cellStyle name="强调文字颜色 1" xfId="56" xr:uid="{D1E19BA4-327B-4813-B102-BA0274F92DC7}"/>
-    <cellStyle name="强调文字颜色 2" xfId="57" xr:uid="{F22B882A-1666-4375-8023-89E6F3D8A0FE}"/>
-    <cellStyle name="强调文字颜色 3" xfId="58" xr:uid="{1B5EFEE5-AFAD-4ED5-B723-887090634B30}"/>
-    <cellStyle name="强调文字颜色 4" xfId="59" xr:uid="{EEEA8793-F0DE-421A-B2D9-474011E19C03}"/>
-    <cellStyle name="强调文字颜色 5" xfId="60" xr:uid="{20A3E77C-AA87-43BD-AC5F-7053D64FEEFD}"/>
-    <cellStyle name="强调文字颜色 6" xfId="61" xr:uid="{BB1616F0-21CB-4D5D-AA88-7E7CF15F39FE}"/>
-    <cellStyle name="适中 2" xfId="16" xr:uid="{776B86AC-9224-480F-BF50-304C28E1A2F1}"/>
-    <cellStyle name="输出 2" xfId="17" xr:uid="{CAA76D1B-568A-4717-B82E-6BE8404E898C}"/>
-    <cellStyle name="输入 2" xfId="18" xr:uid="{B2E43A4A-03AC-4D13-AADF-3F23DCEBD2F4}"/>
-    <cellStyle name="着色 1 2" xfId="62" xr:uid="{7668A51A-0BF8-465E-BE18-D48BF1D1AFE1}"/>
-    <cellStyle name="着色 2 2" xfId="63" xr:uid="{6E93CD75-E700-4A1B-AC03-2AF950E3D503}"/>
-    <cellStyle name="着色 3 2" xfId="64" xr:uid="{1A20A201-4266-4C0E-8FE1-391DA7E80CC0}"/>
-    <cellStyle name="着色 4 2" xfId="65" xr:uid="{4BED2F58-3A5A-46AB-9295-CC2BA925D544}"/>
-    <cellStyle name="着色 5 2" xfId="66" xr:uid="{FB6313A8-E331-43F1-88C1-15519F3408F6}"/>
-    <cellStyle name="着色 6 2" xfId="67" xr:uid="{09354936-F48E-492B-8659-5E40E9BF36C3}"/>
-    <cellStyle name="注释 2" xfId="19" xr:uid="{2B0498C0-DF24-4661-B614-B722E7F9188A}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="着色 2 2" xfId="5"/>
+    <cellStyle name="20% - 着色 6 2" xfId="6"/>
+    <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
+    <cellStyle name="40% - 着色 4 2" xfId="8"/>
+    <cellStyle name="计算 2" xfId="9"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="10" builtinId="39"/>
+    <cellStyle name="差" xfId="11" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="12" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="13" builtinId="40"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8"/>
+    <cellStyle name="百分比" xfId="15" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9"/>
+    <cellStyle name="注释" xfId="17" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="19" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="20" builtinId="11"/>
+    <cellStyle name="标题" xfId="21" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="22" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="23" builtinId="16"/>
+    <cellStyle name="40% - 着色 3 2" xfId="24"/>
+    <cellStyle name="标题 2" xfId="25" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="26" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="27" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="28" builtinId="44"/>
+    <cellStyle name="输出" xfId="29" builtinId="21"/>
+    <cellStyle name="40% - 着色 2 2" xfId="30"/>
+    <cellStyle name="计算" xfId="31" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="32" builtinId="23"/>
+    <cellStyle name="20% - 着色 1 2" xfId="33"/>
+    <cellStyle name="链接单元格" xfId="34" builtinId="24"/>
+    <cellStyle name="40% - 着色 5 2" xfId="35"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="36" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="37" builtinId="33"/>
+    <cellStyle name="汇总" xfId="38" builtinId="25"/>
+    <cellStyle name="好" xfId="39" builtinId="26"/>
+    <cellStyle name="适中" xfId="40" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="41" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="42" builtinId="29"/>
+    <cellStyle name="20% - 着色 2 2" xfId="43"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="44" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="45" builtinId="31"/>
+    <cellStyle name="输出 2" xfId="46"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="47" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="48" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="49" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="50" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="51" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="52" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="53" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
+    <cellStyle name="60% - 着色 6 2" xfId="55"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="56" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="57" builtinId="49"/>
+    <cellStyle name="着色 5 2" xfId="58"/>
+    <cellStyle name="适中 2" xfId="59"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="60" builtinId="51"/>
+    <cellStyle name="20% - 着色 3 2" xfId="61"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="62" builtinId="52"/>
+    <cellStyle name="20% - 着色 4 2" xfId="63"/>
+    <cellStyle name="着色 1 2" xfId="64"/>
+    <cellStyle name="20% - 着色 5 2" xfId="65"/>
+    <cellStyle name="40% - 着色 1 2" xfId="66"/>
+    <cellStyle name="40% - 着色 6 2" xfId="67"/>
+    <cellStyle name="60% - 着色 1 2" xfId="68"/>
+    <cellStyle name="60% - 着色 2 2" xfId="69"/>
+    <cellStyle name="60% - 着色 3 2" xfId="70"/>
+    <cellStyle name="60% - 着色 4 2" xfId="71"/>
+    <cellStyle name="60% - 着色 5 2" xfId="72"/>
+    <cellStyle name="百分比 2" xfId="73"/>
+    <cellStyle name="标题 1 2" xfId="74"/>
+    <cellStyle name="标题 2 2" xfId="75"/>
+    <cellStyle name="标题 3 2" xfId="76"/>
+    <cellStyle name="标题 4 2" xfId="77"/>
+    <cellStyle name="标题 5" xfId="78"/>
+    <cellStyle name="差 2" xfId="79"/>
+    <cellStyle name="常规 2" xfId="80"/>
+    <cellStyle name="好 2" xfId="81"/>
+    <cellStyle name="汇总 2" xfId="82"/>
+    <cellStyle name="检查单元格 2" xfId="83"/>
+    <cellStyle name="解释性文本 2" xfId="84"/>
+    <cellStyle name="警告文本 2" xfId="85"/>
+    <cellStyle name="链接单元格 2" xfId="86"/>
+    <cellStyle name="输入 2" xfId="87"/>
+    <cellStyle name="着色 3 2" xfId="88"/>
+    <cellStyle name="着色 4 2" xfId="89"/>
+    <cellStyle name="着色 6 2" xfId="90"/>
+    <cellStyle name="注释 2" xfId="91"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -882,7 +1191,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -915,26 +1224,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -967,23 +1259,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1125,24 +1400,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4302CFF5-2E12-424E-874D-493FB50EE8E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.875" customWidth="1"/>
     <col min="3" max="3" width="17.875" customWidth="1"/>
@@ -1158,50 +1428,50 @@
     <col min="13" max="13" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" t="s">
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
       </c>
       <c r="B2">
         <v>1078.46</v>
@@ -1213,7 +1483,7 @@
         <v>3066.2</v>
       </c>
       <c r="E2">
-        <v>314.97000000000003</v>
+        <v>314.97</v>
       </c>
       <c r="F2">
         <v>443.6</v>
@@ -1240,9 +1510,9 @@
         <v>11605632.01</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>353.18</v>
@@ -1281,9 +1551,9 @@
         <v>475631.57</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>442.51</v>
@@ -1295,7 +1565,7 @@
         <v>692.6</v>
       </c>
       <c r="E4">
-        <v>80.760000000000005</v>
+        <v>80.76</v>
       </c>
       <c r="F4">
         <v>179.57</v>
@@ -1307,7 +1577,7 @@
         <v>26069</v>
       </c>
       <c r="I4">
-        <v>9241.2199999999993</v>
+        <v>9241.22</v>
       </c>
       <c r="J4">
         <v>4650478</v>
@@ -1322,18 +1592,18 @@
         <v>561982.02</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B5">
-        <v>309.45999999999998</v>
+        <v>309.46</v>
       </c>
       <c r="C5">
-        <v>1349.3525999999999</v>
+        <v>1349.3526</v>
       </c>
       <c r="D5">
-        <v>588.08000000000004</v>
+        <v>588.08</v>
       </c>
       <c r="E5">
         <v>99.11</v>
@@ -1363,15 +1633,15 @@
         <v>4393492.62</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>784.36</v>
       </c>
       <c r="C6">
-        <v>6354.8675000000003</v>
+        <v>6354.8675</v>
       </c>
       <c r="D6">
         <v>2679.41</v>
@@ -1401,18 +1671,18 @@
         <v>23711061</v>
       </c>
       <c r="M6">
-        <v>10724992.859999999</v>
+        <v>10724992.86</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>461.5</v>
       </c>
       <c r="C7">
-        <v>2720.4580000000001</v>
+        <v>2720.458</v>
       </c>
       <c r="D7">
         <v>438.64</v>
@@ -1442,18 +1712,18 @@
         <v>8819112</v>
       </c>
       <c r="M7">
-        <v>4977970.4400000004</v>
+        <v>4977970.44</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>1163.45</v>
       </c>
       <c r="C8">
-        <v>3477.1269000000002</v>
+        <v>3477.1269</v>
       </c>
       <c r="D8">
         <v>883.26</v>
@@ -1486,9 +1756,9 @@
         <v>4064206.19</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>750.55</v>
@@ -1503,7 +1773,7 @@
         <v>99.06</v>
       </c>
       <c r="F9">
-        <v>156.02000000000001</v>
+        <v>156.02</v>
       </c>
       <c r="G9">
         <v>2875046</v>
@@ -1527,15 +1797,15 @@
         <v>2844218.99</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>445.31</v>
       </c>
       <c r="C10">
-        <v>1420.1824999999999</v>
+        <v>1420.1825</v>
       </c>
       <c r="D10">
         <v>402.86</v>
@@ -1568,15 +1838,15 @@
         <v>2656550.9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>731.99</v>
       </c>
       <c r="C11">
-        <v>1975.7460000000001</v>
+        <v>1975.746</v>
       </c>
       <c r="D11">
         <v>343.41</v>
@@ -1609,15 +1879,15 @@
         <v>1795954.1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>949.28</v>
       </c>
       <c r="C12">
-        <v>3361.1122999999998</v>
+        <v>3361.1123</v>
       </c>
       <c r="D12">
         <v>1602.22</v>
@@ -1651,8 +1921,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>